--- a/src/HierachyPlanning.xlsx
+++ b/src/HierachyPlanning.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27960" windowHeight="13110"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27960" windowHeight="13110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Old Hierachy" sheetId="1" r:id="rId1"/>
-    <sheet name="Proposed Hierachy" sheetId="3" r:id="rId2"/>
+    <sheet name="City on a Hill" sheetId="4" r:id="rId2"/>
+    <sheet name="St. Alfreds" sheetId="5" r:id="rId3"/>
+    <sheet name="Proposed Hierachy" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="126">
   <si>
     <t>St. Pauls Old Website Herachy</t>
   </si>
@@ -255,6 +257,144 @@
   </si>
   <si>
     <t>Parking Maps are GREAT</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>Page Hierachy</t>
+  </si>
+  <si>
+    <t>Various Notices &amp; Series Adverts</t>
+  </si>
+  <si>
+    <t>Know Jesus (About, Latest Sermon, Services)</t>
+  </si>
+  <si>
+    <t>Make Known (Connect, Serve, City News Email)</t>
+  </si>
+  <si>
+    <t>Im New</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>General Info of Startup centred around Jesus, Newcomer Event Rego &amp; Each Campus. Service Times on the Side</t>
+  </si>
+  <si>
+    <t>Want jesus Famous, Public Doctrinal Statement, 5 Flags of priorities &amp; characteristics, similar to AFT</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>Bible, Christ, Mission, Disciple, Culturally, Mercy, Spirit Saturated, Doctrinal Statement.</t>
+  </si>
+  <si>
+    <t>Leaders</t>
+  </si>
+  <si>
+    <t>Partners</t>
+  </si>
+  <si>
+    <t>Paid Staff, Wardens</t>
+  </si>
+  <si>
+    <t>Acts 29, Anglican Authorised from Diocese of Melbourne</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>The Man, The Mission, The Message</t>
+  </si>
+  <si>
+    <t>Leads into Introducing Jesus</t>
+  </si>
+  <si>
+    <t>Baptism - 'Contact us'</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Gospel Communities</t>
+  </si>
+  <si>
+    <t>Organized by Neighbourhood &amp; Network, "join today"</t>
+  </si>
+  <si>
+    <t>City Kids</t>
+  </si>
+  <si>
+    <t>City Youth</t>
+  </si>
+  <si>
+    <t>No links.</t>
+  </si>
+  <si>
+    <t>Mercy</t>
+  </si>
+  <si>
+    <t>Care</t>
+  </si>
+  <si>
+    <t>Manyrooms.org.au - Outward caring for homelessness</t>
+  </si>
+  <si>
+    <t>Prayer requests!</t>
+  </si>
+  <si>
+    <t>Grow</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Serve</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Internships</t>
+  </si>
+  <si>
+    <t>Church Planting</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Sermons</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Past Sermons as well</t>
+  </si>
+  <si>
+    <t>About Worship to God, albums</t>
+  </si>
+  <si>
+    <t>Various posts about things coming up, sermon topics, news, etc</t>
+  </si>
+  <si>
+    <t>Giving, donations etc, &amp;WHY|ATTITUDE</t>
+  </si>
+  <si>
+    <t>Page Heriechy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -366,15 +506,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
@@ -698,32 +838,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" customHeight="1">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1">
-      <c r="M6" s="10"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="2" t="s">
@@ -740,7 +880,7 @@
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8" t="s">
         <v>43</v>
       </c>
@@ -752,13 +892,13 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:14">
       <c r="C9" s="3"/>
@@ -796,13 +936,13 @@
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="7" t="s">
         <v>39</v>
       </c>
@@ -849,13 +989,13 @@
       <c r="F16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="7" t="s">
         <v>39</v>
       </c>
@@ -869,13 +1009,13 @@
       <c r="F17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="7" t="s">
         <v>39</v>
       </c>
@@ -892,13 +1032,13 @@
       <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="7" t="s">
         <v>39</v>
       </c>
@@ -912,13 +1052,13 @@
       <c r="F19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="7" t="s">
         <v>39</v>
       </c>
@@ -1156,10 +1296,257 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D7:F42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:6">
+      <c r="D7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="E10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="E14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="E15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="E16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="E17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="E18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="F21" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="E25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="E26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="E28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="E31" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="E32" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="E33" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="E34" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6">
+      <c r="D36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="E38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="E40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6">
+      <c r="D42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1180,32 +1567,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" customHeight="1">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1">
-      <c r="M6" s="10"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="2" t="s">
@@ -1222,7 +1609,7 @@
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8" t="s">
         <v>43</v>
       </c>
@@ -1249,7 +1636,9 @@
     </row>
     <row r="12" spans="2:14">
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
     </row>

--- a/src/HierachyPlanning.xlsx
+++ b/src/HierachyPlanning.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27960" windowHeight="13110" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27960" windowHeight="13110" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Old Hierachy" sheetId="1" r:id="rId1"/>
-    <sheet name="City on a Hill" sheetId="4" r:id="rId2"/>
-    <sheet name="St. Alfreds" sheetId="5" r:id="rId3"/>
-    <sheet name="Proposed Hierachy" sheetId="3" r:id="rId4"/>
+    <sheet name="Proposed Hierachy" sheetId="3" r:id="rId2"/>
+    <sheet name="City on a Hill" sheetId="4" r:id="rId3"/>
+    <sheet name="St. Alfreds" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="157">
   <si>
     <t>St. Pauls Old Website Herachy</t>
   </si>
@@ -395,13 +396,106 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Visit - Service Times</t>
+  </si>
+  <si>
+    <t>About - Values, Beliefs, Staff</t>
+  </si>
+  <si>
+    <t>Welcome - Minister</t>
+  </si>
+  <si>
+    <t>Public Sermons</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Services - Same as front page</t>
+  </si>
+  <si>
+    <t>Links to Connect Form (online), growth group, serving</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Link to contact, goes to detailed profile. no personal email given.</t>
+  </si>
+  <si>
+    <t>Parish Council</t>
+  </si>
+  <si>
+    <t>Purpose and Contact, Policies for Grievance, Parish Rules, Photo&amp;Video, Privacy, WWC</t>
+  </si>
+  <si>
+    <t>Beliefs &amp; Values</t>
+  </si>
+  <si>
+    <t>Beliefs: Dense information about stances on Christianity</t>
+  </si>
+  <si>
+    <t>Values: Trinity, Worship Prayer, People, Mission, Community</t>
+  </si>
+  <si>
+    <t>Mission Partners</t>
+  </si>
+  <si>
+    <t>Partners ie, Oliver… , and links to regular Outreach Ministries</t>
+  </si>
+  <si>
+    <t>List of availabel services. Marrige Courses, Funerals, Parenting, Growth, Prayer@services, Baptism/Thanksgiving, Confirmation/Re-affirmation/Reception</t>
+  </si>
+  <si>
+    <t>Relevant Sermon Series</t>
+  </si>
+  <si>
+    <t>Relevant Information</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Upcoming events - Issues Night, Finances Night (non-Sunday events with specific dates)</t>
+  </si>
+  <si>
+    <t>Talks</t>
+  </si>
+  <si>
+    <t>Past Sermon Series</t>
+  </si>
+  <si>
+    <t>Get Involved</t>
+  </si>
+  <si>
+    <t>Various Groups, ie Youth, Mentoring, Mainly Music, Courses</t>
+  </si>
+  <si>
+    <t>Subpages for each</t>
+  </si>
+  <si>
+    <t>Home Page:</t>
+  </si>
+  <si>
+    <t>Welcome Msg</t>
+  </si>
+  <si>
+    <t>What we're about.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +513,19 @@
     <font>
       <sz val="20"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -492,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -515,6 +622,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,7 +926,7 @@
   <dimension ref="B2:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1296,257 +1405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D7:F42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="4:6">
-      <c r="D7" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6">
-      <c r="E10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="E11" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="E14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6">
-      <c r="E15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6">
-      <c r="E16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="E17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="E18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="F21" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="E24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="E25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="E26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6">
-      <c r="E28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="D30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="E31" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="E32" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="E33" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="E34" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="D36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6">
-      <c r="E38" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="E40" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6">
-      <c r="D42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4">
-      <c r="D4" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1782,4 +1644,671 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D7:F42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:6">
+      <c r="D7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="E10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="E14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="E15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="E16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="E17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="E18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="F21" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="E25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="E26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="E28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="E31" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="E32" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="E33" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="E34" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6">
+      <c r="D36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="E38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="E40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6">
+      <c r="D42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="D6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="D7" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="D8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="D11" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="D15" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="D16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="D18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="D20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="E21" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="D23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="D25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="D28" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="D33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="D34" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="D37" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>